--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\git\Mogo_Doc\VersionRecords\Version 5.3.7 20170406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS权限配置汇总</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -212,7 +208,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>提现出款流程变更</t>
+    <t>DV-2620</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS，partnerApp,renterApp,lts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1008,7 @@
   <dimension ref="A1:T215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1016,7 @@
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="15" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18" style="19" customWidth="1"/>
+    <col min="4" max="4" width="34" style="19" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="19" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="20" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
@@ -1090,33 +1106,43 @@
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="13">
-        <v>42580</v>
+        <v>42830</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="13">
-        <v>42580</v>
+        <v>42830</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42830</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -5576,7 +5602,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5600,28 +5626,28 @@
     </row>
     <row r="3" spans="1:9" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>14</v>
@@ -5630,10 +5656,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="35"/>
@@ -6851,7 +6877,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6883,40 +6909,40 @@
     </row>
     <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>33</v>
+      <c r="D3" s="32" t="s">
+        <v>41</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="32" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>14</v>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
@@ -29,7 +29,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>5分钟 依赖上一个周期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>corn任务</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -345,6 +341,62 @@
   <si>
     <t>5.3.7</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时接收payapi发送的回调消息</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>凿空</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayCallBackTask</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.PayCallBackTask.java</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.PayCallBackTask"}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖上一个周期</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5分钟 </t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖上一个周期</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即联系开发</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个任务是支付回调处理，至关重要。出错请立即通知到开发</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -815,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,6 +1120,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,38 +1180,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -5590,17 +5654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
     <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="7.125" customWidth="1"/>
@@ -5608,11 +5672,11 @@
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
     <col min="13" max="13" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="21.125" customWidth="1"/>
+    <col min="18" max="18" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -5672,72 +5736,106 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="L2" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="98" t="s">
+      <c r="F3" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="H3" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="I3" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="93" t="s">
+      <c r="J3" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="93"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="O3" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
@@ -5762,6 +5860,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5786,19 +5885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5836,8 +5935,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5849,8 +5948,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5862,8 +5961,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5875,8 +5974,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5888,8 +5987,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5901,8 +6000,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5914,8 +6013,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5927,8 +6026,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5989,36 +6088,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6303,36 +6402,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6617,36 +6716,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6933,36 +7032,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="435" windowWidth="28725" windowHeight="17565" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="435" windowWidth="28725" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -397,6 +397,32 @@
   <si>
     <t>这个任务是支付回调处理，至关重要。出错请立即通知到开发</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>forupdate和支付解耦</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter partner/pc papp payapi lts tp bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1082</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
@@ -867,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,6 +1179,18 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,16 +1218,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1567,15 +1596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
@@ -1711,8 +1740,12 @@
       <c r="O2" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="P2" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="79">
+        <v>42830</v>
+      </c>
       <c r="R2" s="81" t="s">
         <v>72</v>
       </c>
@@ -1724,26 +1757,62 @@
       <c r="V2" s="67"/>
       <c r="W2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="79">
+        <v>42830</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="79">
+        <v>42830</v>
+      </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="56"/>
+      <c r="L3" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="79">
+        <v>42830</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>110</v>
+      </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="67"/>
@@ -5620,7 +5689,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M3:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
@@ -5654,7 +5723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5811,29 +5880,29 @@
       <c r="I3" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="96" t="s">
         <v>97</v>
       </c>
       <c r="K3" s="42"/>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="96" t="s">
         <v>98</v>
       </c>
       <c r="N3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="106" t="s">
+      <c r="O3" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="107" t="s">
+      <c r="P3" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="106" t="s">
+      <c r="Q3" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="97" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5885,19 +5954,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5935,8 +6004,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5948,8 +6017,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5961,8 +6030,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5974,8 +6043,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5987,8 +6056,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6000,8 +6069,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6013,8 +6082,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6026,8 +6095,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6088,36 +6157,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6402,36 +6471,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6716,36 +6785,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7032,36 +7101,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>内存泄露问题</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3201</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1199,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,7 +1230,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1596,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1761,13 +1772,13 @@
       <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="99" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="99" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1819,26 +1830,62 @@
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="79">
+        <v>42832</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="79">
+        <v>42832</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
+      <c r="L4" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="79">
+        <v>42832</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>113</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
@@ -5689,7 +5736,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M5:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
@@ -5954,19 +6001,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6004,8 +6051,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6017,8 +6064,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6030,8 +6077,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6043,8 +6090,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6056,8 +6103,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6069,8 +6116,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6082,8 +6129,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6095,8 +6142,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6157,36 +6204,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6471,36 +6518,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6785,36 +6832,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7101,36 +7148,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_架构组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="435" windowWidth="28725" windowHeight="17565"/>
+    <workbookView xWindow="75" yWindow="435" windowWidth="28725" windowHeight="17565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -430,6 +430,55 @@
   </si>
   <si>
     <t>DV-3201</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上回调域名变更</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2975</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>凿空</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>将支付宝 和微信的回调域名 由原来的  pay.api.mogooroom.com 替换为 pay.api.mgzf.com
+weixin_renter_notify_url
+weixin_partner_notify_url
+weixin_offiAccount_notify_url
+zhifubao_notify_url
+zhifubao_refund_notify_url
+zhifubaoNoCredit_notify_url
+zhifubaoNoCredit_refund_notify_url</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1202,6 +1251,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,9 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1607,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1840,7 +1889,7 @@
       <c r="C4" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="100" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -1893,25 +1942,61 @@
       <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="79">
+        <v>42832</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="79">
+        <v>42832</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="56"/>
+      <c r="L5" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="79">
+        <v>42832</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>116</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="67"/>
@@ -5736,7 +5821,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M5:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M6:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
@@ -6001,19 +6086,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6051,8 +6136,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6064,8 +6149,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6077,8 +6162,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6090,8 +6175,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6103,8 +6188,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6116,8 +6201,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6129,8 +6214,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6142,8 +6227,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6184,18 +6269,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="76" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.375" customWidth="1"/>
@@ -6204,36 +6290,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6276,19 +6362,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:13" ht="132" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6518,36 +6624,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6832,36 +6938,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7148,36 +7254,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
